--- a/Raw_data/Code.xlsx
+++ b/Raw_data/Code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierre/Documents/my_projects/M2_CRC_Immunex/Raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierre/Documents/my_projects/M2_CRC_Immunex_Lung_cancer/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2D2ED9-9759-C545-8BFA-1E4F74D854A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758956D2-E16F-5846-B204-068F2683B11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12080" yWindow="7700" windowWidth="14720" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12080" yWindow="500" windowWidth="14720" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="509">
   <si>
     <t>date naissance</t>
   </si>
@@ -1560,6 +1560,9 @@
   </si>
   <si>
     <t>si pN2_localisation</t>
+  </si>
+  <si>
+    <t>cau</t>
   </si>
 </sst>
 </file>
@@ -2136,10 +2139,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HK239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ER1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="EZ1" sqref="EZ1"/>
+      <selection pane="bottomLeft" activeCell="GJ2" sqref="GJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6597,7 +6600,9 @@
       <c r="ET14" s="31"/>
       <c r="EU14" s="31"/>
       <c r="EV14" s="31"/>
-      <c r="EW14" s="31"/>
+      <c r="EW14" s="31" t="s">
+        <v>508</v>
+      </c>
       <c r="EX14" s="31"/>
       <c r="EY14" s="31"/>
       <c r="EZ14" s="31"/>
